--- a/Jogos_do_Dia/04-09-2022_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/04-09-2022_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="I96" t="n">
         <v>1.05</v>
@@ -5247,7 +5247,7 @@
         <v>1.23</v>
       </c>
       <c r="K96" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="L96" t="n">
         <v>1.6</v>
@@ -6532,13 +6532,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="G122" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
-        <v>3.93</v>
+        <v>4.55</v>
       </c>
       <c r="I122" t="n">
         <v>1.05</v>
@@ -6547,7 +6547,7 @@
         <v>1.22</v>
       </c>
       <c r="K122" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L122" t="n">
         <v>1.68</v>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3.82</v>
+        <v>3.5</v>
       </c>
       <c r="G123" t="n">
-        <v>3.72</v>
+        <v>3.45</v>
       </c>
       <c r="H123" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="I123" t="n">
         <v>1.05</v>
@@ -6597,7 +6597,7 @@
         <v>1.21</v>
       </c>
       <c r="K123" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="L123" t="n">
         <v>1.62</v>
@@ -7757,6 +7757,106 @@
       </c>
       <c r="N146" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44808.91666666666</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44808.9375</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
